--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080D7BB-EAB5-4349-9DD2-98EC3A2C0EEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAFA81-8547-4516-8C9D-59E62625F0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6661,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C124"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6751,7 +6751,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -6819,7 +6819,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
@@ -6887,7 +6887,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -6955,7 +6955,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>32</v>
@@ -7023,7 +7023,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
@@ -7091,7 +7091,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>36</v>
@@ -7159,7 +7159,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>38</v>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAFA81-8547-4516-8C9D-59E62625F0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2396207-1C2E-42B8-97EC-2692D8A9A2CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6266,7 +6266,7 @@
     <t>CustomLeaveCycleMonth</t>
   </si>
   <si>
-    <t>january</t>
+    <t>november</t>
   </si>
 </sst>
 </file>
@@ -6659,10 +6659,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6751,7 +6753,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -6819,7 +6821,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
@@ -6887,7 +6889,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -6955,7 +6957,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>32</v>
@@ -7023,7 +7025,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
@@ -7091,7 +7093,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>36</v>
@@ -7159,7 +7161,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>38</v>
@@ -9531,7 +9533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
@@ -9599,7 +9601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -9667,7 +9669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -9735,7 +9737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>21</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -9871,7 +9873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -9939,7 +9941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
@@ -10007,7 +10009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -10075,7 +10077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
@@ -10143,7 +10145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -10211,7 +10213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>21</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>21</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
@@ -10415,7 +10417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>21</v>
       </c>
@@ -10551,7 +10553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="198" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>21</v>
       </c>
@@ -10619,7 +10621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>21</v>
       </c>
@@ -10687,7 +10689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>21</v>
       </c>
@@ -10755,7 +10757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>21</v>
       </c>
@@ -10823,7 +10825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
@@ -10891,7 +10893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="198" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>21</v>
       </c>
@@ -10959,7 +10961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
@@ -11095,7 +11097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>21</v>
       </c>
@@ -11163,7 +11165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>21</v>
       </c>
@@ -11231,7 +11233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="198" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>21</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -11367,7 +11369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
@@ -11435,7 +11437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>21</v>
       </c>
@@ -11503,7 +11505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>21</v>
       </c>
@@ -11571,7 +11573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
@@ -11639,7 +11641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -11707,7 +11709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>21</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>21</v>
       </c>
@@ -11843,7 +11845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>21</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="198" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
@@ -11979,7 +11981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -12047,7 +12049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
@@ -12115,7 +12117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -12251,7 +12253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="198" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
@@ -15108,6 +15110,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V124" xr:uid="{752B5FA5-38E9-4277-A9B0-B3CF248D389A}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2396207-1C2E-42B8-97EC-2692D8A9A2CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAF1CC-CB12-41FE-8776-78C1ABE5A558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16298" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="951">
   <si>
     <t>Test Case</t>
   </si>
@@ -6662,9 +6662,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H124"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9541,7 +9541,7 @@
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>108</v>
@@ -9609,7 +9609,7 @@
         <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>110</v>
@@ -9677,7 +9677,7 @@
         <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>112</v>
@@ -9745,7 +9745,7 @@
         <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>114</v>
@@ -9813,7 +9813,7 @@
         <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>116</v>
@@ -9881,7 +9881,7 @@
         <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>118</v>
@@ -9949,7 +9949,7 @@
         <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>120</v>
@@ -10017,7 +10017,7 @@
         <v>121</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>122</v>
@@ -10085,7 +10085,7 @@
         <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>124</v>
@@ -10153,7 +10153,7 @@
         <v>125</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>126</v>
@@ -10221,7 +10221,7 @@
         <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>128</v>
@@ -10289,7 +10289,7 @@
         <v>129</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>130</v>
@@ -10357,7 +10357,7 @@
         <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>132</v>
@@ -10425,7 +10425,7 @@
         <v>133</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>134</v>
@@ -10493,7 +10493,7 @@
         <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>136</v>
@@ -10561,7 +10561,7 @@
         <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>138</v>
@@ -10629,7 +10629,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>140</v>
@@ -10697,7 +10697,7 @@
         <v>141</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>142</v>
@@ -10765,7 +10765,7 @@
         <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>144</v>
@@ -10833,7 +10833,7 @@
         <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>146</v>
@@ -10901,7 +10901,7 @@
         <v>147</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>148</v>
@@ -10969,7 +10969,7 @@
         <v>149</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>150</v>
@@ -11037,7 +11037,7 @@
         <v>151</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>152</v>
@@ -11105,7 +11105,7 @@
         <v>153</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>154</v>
@@ -11173,7 +11173,7 @@
         <v>155</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>156</v>
@@ -11241,7 +11241,7 @@
         <v>157</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>158</v>
@@ -11309,7 +11309,7 @@
         <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>160</v>
@@ -11377,7 +11377,7 @@
         <v>161</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>162</v>
@@ -11445,7 +11445,7 @@
         <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>164</v>
@@ -11513,7 +11513,7 @@
         <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>166</v>
@@ -11581,7 +11581,7 @@
         <v>167</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>168</v>
@@ -11649,7 +11649,7 @@
         <v>169</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>170</v>
@@ -11717,7 +11717,7 @@
         <v>171</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>172</v>
@@ -11785,7 +11785,7 @@
         <v>173</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>174</v>
@@ -11853,7 +11853,7 @@
         <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>176</v>
@@ -11921,7 +11921,7 @@
         <v>177</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>178</v>
@@ -11989,7 +11989,7 @@
         <v>179</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>180</v>
@@ -12057,7 +12057,7 @@
         <v>181</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>182</v>
@@ -12125,7 +12125,7 @@
         <v>183</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>184</v>
@@ -12193,7 +12193,7 @@
         <v>185</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>186</v>
@@ -12261,7 +12261,7 @@
         <v>187</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>188</v>
@@ -14667,8 +14667,8 @@
       <c r="K118" s="4">
         <v>45</v>
       </c>
-      <c r="L118" s="4" t="s">
-        <v>23</v>
+      <c r="L118" s="4">
+        <v>6</v>
       </c>
       <c r="M118" s="4" t="s">
         <v>26</v>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAF1CC-CB12-41FE-8776-78C1ABE5A558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5559EED5-2116-4F67-BF67-0A1C0C5E3E87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="952">
   <si>
     <t>Test Case</t>
   </si>
@@ -6267,6 +6267,9 @@
   </si>
   <si>
     <t>november</t>
+  </si>
+  <si>
+    <t>september</t>
   </si>
 </sst>
 </file>
@@ -6663,8 +6666,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6765,7 +6768,7 @@
         <v>948</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>23</v>
@@ -6833,7 +6836,7 @@
         <v>948</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>23</v>
@@ -6901,7 +6904,7 @@
         <v>948</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>23</v>
@@ -6969,7 +6972,7 @@
         <v>948</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>23</v>
@@ -7037,7 +7040,7 @@
         <v>948</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>23</v>
@@ -7105,7 +7108,7 @@
         <v>948</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>23</v>
@@ -7173,7 +7176,7 @@
         <v>948</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>23</v>
@@ -7241,7 +7244,7 @@
         <v>948</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>23</v>
@@ -7309,7 +7312,7 @@
         <v>948</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>23</v>
@@ -7377,7 +7380,7 @@
         <v>948</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>23</v>
@@ -7445,7 +7448,7 @@
         <v>948</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>23</v>
@@ -7513,7 +7516,7 @@
         <v>948</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>23</v>
@@ -7581,7 +7584,7 @@
         <v>948</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>23</v>
@@ -7649,7 +7652,7 @@
         <v>948</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>23</v>
@@ -7717,7 +7720,7 @@
         <v>948</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>23</v>
@@ -7785,7 +7788,7 @@
         <v>948</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>23</v>
@@ -7853,7 +7856,7 @@
         <v>948</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>23</v>
@@ -7921,7 +7924,7 @@
         <v>948</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>23</v>
@@ -7989,7 +7992,7 @@
         <v>948</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>23</v>
@@ -8057,7 +8060,7 @@
         <v>948</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>23</v>
@@ -8125,7 +8128,7 @@
         <v>948</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>23</v>
@@ -8193,7 +8196,7 @@
         <v>948</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>23</v>
@@ -8261,7 +8264,7 @@
         <v>948</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>23</v>
@@ -8329,7 +8332,7 @@
         <v>948</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>23</v>
@@ -8397,7 +8400,7 @@
         <v>948</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>23</v>
@@ -8465,7 +8468,7 @@
         <v>948</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>23</v>
@@ -8533,7 +8536,7 @@
         <v>948</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>23</v>
@@ -8601,7 +8604,7 @@
         <v>948</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>23</v>
@@ -8669,7 +8672,7 @@
         <v>948</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>23</v>
@@ -8737,7 +8740,7 @@
         <v>948</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>23</v>
@@ -8805,7 +8808,7 @@
         <v>948</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>23</v>
@@ -8873,7 +8876,7 @@
         <v>948</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>23</v>
@@ -8941,7 +8944,7 @@
         <v>948</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>23</v>
@@ -9009,7 +9012,7 @@
         <v>948</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>23</v>
@@ -9077,7 +9080,7 @@
         <v>948</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>23</v>
@@ -9145,7 +9148,7 @@
         <v>948</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>23</v>
@@ -9213,7 +9216,7 @@
         <v>948</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>23</v>
@@ -9281,7 +9284,7 @@
         <v>948</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>23</v>
@@ -9349,7 +9352,7 @@
         <v>948</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>23</v>
@@ -9417,7 +9420,7 @@
         <v>948</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>23</v>
@@ -9485,7 +9488,7 @@
         <v>948</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>23</v>
@@ -12341,7 +12344,7 @@
         <v>948</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>23</v>
@@ -12409,7 +12412,7 @@
         <v>948</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>23</v>
@@ -12477,7 +12480,7 @@
         <v>948</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>23</v>
@@ -12545,7 +12548,7 @@
         <v>948</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>23</v>
@@ -12613,7 +12616,7 @@
         <v>948</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>23</v>
@@ -12681,7 +12684,7 @@
         <v>948</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>23</v>
@@ -12749,7 +12752,7 @@
         <v>948</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>23</v>
@@ -12817,7 +12820,7 @@
         <v>948</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>23</v>
@@ -12885,7 +12888,7 @@
         <v>948</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>23</v>
@@ -12953,7 +12956,7 @@
         <v>948</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>23</v>
@@ -13021,7 +13024,7 @@
         <v>948</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>23</v>
@@ -13089,7 +13092,7 @@
         <v>948</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>23</v>
@@ -13157,7 +13160,7 @@
         <v>948</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>23</v>
@@ -13225,7 +13228,7 @@
         <v>948</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>23</v>
@@ -13293,7 +13296,7 @@
         <v>948</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>23</v>
@@ -13361,7 +13364,7 @@
         <v>948</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>23</v>
@@ -13429,7 +13432,7 @@
         <v>948</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>23</v>
@@ -13497,7 +13500,7 @@
         <v>948</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>23</v>
@@ -13565,7 +13568,7 @@
         <v>948</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>23</v>
@@ -13633,7 +13636,7 @@
         <v>948</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>23</v>
@@ -13701,7 +13704,7 @@
         <v>948</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>23</v>
@@ -13769,7 +13772,7 @@
         <v>948</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>23</v>
@@ -13837,7 +13840,7 @@
         <v>948</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>23</v>
@@ -13905,7 +13908,7 @@
         <v>948</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>23</v>
@@ -13973,7 +13976,7 @@
         <v>948</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>23</v>
@@ -14041,7 +14044,7 @@
         <v>948</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>23</v>
@@ -14109,7 +14112,7 @@
         <v>948</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>23</v>
@@ -14177,7 +14180,7 @@
         <v>948</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>23</v>
@@ -14245,7 +14248,7 @@
         <v>948</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>23</v>
@@ -14313,7 +14316,7 @@
         <v>948</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>23</v>
@@ -14381,7 +14384,7 @@
         <v>948</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>23</v>
@@ -14449,7 +14452,7 @@
         <v>948</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>23</v>
@@ -14517,7 +14520,7 @@
         <v>948</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>23</v>
@@ -14585,7 +14588,7 @@
         <v>948</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>23</v>
@@ -14653,7 +14656,7 @@
         <v>948</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>23</v>
@@ -14721,7 +14724,7 @@
         <v>948</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>23</v>
@@ -14789,7 +14792,7 @@
         <v>948</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>23</v>
@@ -14857,7 +14860,7 @@
         <v>948</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>23</v>
@@ -14925,7 +14928,7 @@
         <v>948</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>23</v>
@@ -14993,7 +14996,7 @@
         <v>948</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>23</v>
@@ -15061,7 +15064,7 @@
         <v>948</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>23</v>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5559EED5-2116-4F67-BF67-0A1C0C5E3E87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B91E3-1F73-4C96-AFD9-2C81AC8F5C0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6665,7 +6665,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C124"/>
     </sheetView>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B91E3-1F73-4C96-AFD9-2C81AC8F5C0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81D2D5-94E0-431D-9F8F-C9A0E40655FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6666,8 +6666,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C124"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81D2D5-94E0-431D-9F8F-C9A0E40655FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A97DF-381E-44D4-A14E-184B4303FCE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6269,7 +6269,7 @@
     <t>november</t>
   </si>
   <si>
-    <t>september</t>
+    <t>october</t>
   </si>
 </sst>
 </file>
@@ -6666,8 +6666,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A97DF-381E-44D4-A14E-184B4303FCE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064A095C-A69B-4B55-9182-24AD5CF725AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="951">
   <si>
     <t>Test Case</t>
   </si>
@@ -6267,9 +6267,6 @@
   </si>
   <si>
     <t>november</t>
-  </si>
-  <si>
-    <t>october</t>
   </si>
 </sst>
 </file>
@@ -6768,7 +6765,7 @@
         <v>948</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>23</v>
@@ -6836,7 +6833,7 @@
         <v>948</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>23</v>
@@ -6904,7 +6901,7 @@
         <v>948</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>23</v>
@@ -6972,7 +6969,7 @@
         <v>948</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>23</v>
@@ -7040,7 +7037,7 @@
         <v>948</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>23</v>
@@ -7108,7 +7105,7 @@
         <v>948</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>23</v>
@@ -7176,7 +7173,7 @@
         <v>948</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>23</v>
@@ -7244,7 +7241,7 @@
         <v>948</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>23</v>
@@ -7312,7 +7309,7 @@
         <v>948</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>23</v>
@@ -7380,7 +7377,7 @@
         <v>948</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>23</v>
@@ -7448,7 +7445,7 @@
         <v>948</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>23</v>
@@ -7516,7 +7513,7 @@
         <v>948</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>23</v>
@@ -7584,7 +7581,7 @@
         <v>948</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>23</v>
@@ -7652,7 +7649,7 @@
         <v>948</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>23</v>
@@ -7720,7 +7717,7 @@
         <v>948</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>23</v>
@@ -7788,7 +7785,7 @@
         <v>948</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>23</v>
@@ -7856,7 +7853,7 @@
         <v>948</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>23</v>
@@ -7924,7 +7921,7 @@
         <v>948</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>23</v>
@@ -7992,7 +7989,7 @@
         <v>948</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>23</v>
@@ -8060,7 +8057,7 @@
         <v>948</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>23</v>
@@ -8128,7 +8125,7 @@
         <v>948</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>23</v>
@@ -8196,7 +8193,7 @@
         <v>948</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>23</v>
@@ -8264,7 +8261,7 @@
         <v>948</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>23</v>
@@ -8332,7 +8329,7 @@
         <v>948</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>23</v>
@@ -8400,7 +8397,7 @@
         <v>948</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>23</v>
@@ -8468,7 +8465,7 @@
         <v>948</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>23</v>
@@ -8536,7 +8533,7 @@
         <v>948</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>23</v>
@@ -8604,7 +8601,7 @@
         <v>948</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>23</v>
@@ -8672,7 +8669,7 @@
         <v>948</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>23</v>
@@ -8740,7 +8737,7 @@
         <v>948</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>23</v>
@@ -8808,7 +8805,7 @@
         <v>948</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>23</v>
@@ -8876,7 +8873,7 @@
         <v>948</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>23</v>
@@ -8944,7 +8941,7 @@
         <v>948</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>23</v>
@@ -9012,7 +9009,7 @@
         <v>948</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>23</v>
@@ -9080,7 +9077,7 @@
         <v>948</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>23</v>
@@ -9148,7 +9145,7 @@
         <v>948</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>23</v>
@@ -9216,7 +9213,7 @@
         <v>948</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>23</v>
@@ -9284,7 +9281,7 @@
         <v>948</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>23</v>
@@ -9352,7 +9349,7 @@
         <v>948</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>23</v>
@@ -9420,7 +9417,7 @@
         <v>948</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>23</v>
@@ -9488,7 +9485,7 @@
         <v>948</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>23</v>
@@ -12344,7 +12341,7 @@
         <v>948</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>23</v>
@@ -12412,7 +12409,7 @@
         <v>948</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>23</v>
@@ -12480,7 +12477,7 @@
         <v>948</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>23</v>
@@ -12548,7 +12545,7 @@
         <v>948</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>23</v>
@@ -12616,7 +12613,7 @@
         <v>948</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>23</v>
@@ -12684,7 +12681,7 @@
         <v>948</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>23</v>
@@ -12752,7 +12749,7 @@
         <v>948</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>23</v>
@@ -12820,7 +12817,7 @@
         <v>948</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>23</v>
@@ -12888,7 +12885,7 @@
         <v>948</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>23</v>
@@ -12956,7 +12953,7 @@
         <v>948</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>23</v>
@@ -13024,7 +13021,7 @@
         <v>948</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>23</v>
@@ -13092,7 +13089,7 @@
         <v>948</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>23</v>
@@ -13160,7 +13157,7 @@
         <v>948</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>23</v>
@@ -13228,7 +13225,7 @@
         <v>948</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>23</v>
@@ -13296,7 +13293,7 @@
         <v>948</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>23</v>
@@ -13364,7 +13361,7 @@
         <v>948</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>23</v>
@@ -13432,7 +13429,7 @@
         <v>948</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>23</v>
@@ -13500,7 +13497,7 @@
         <v>948</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>23</v>
@@ -13568,7 +13565,7 @@
         <v>948</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>23</v>
@@ -13636,7 +13633,7 @@
         <v>948</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>23</v>
@@ -13704,7 +13701,7 @@
         <v>948</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>23</v>
@@ -13772,7 +13769,7 @@
         <v>948</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>23</v>
@@ -13840,7 +13837,7 @@
         <v>948</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>23</v>
@@ -13908,7 +13905,7 @@
         <v>948</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>23</v>
@@ -13976,7 +13973,7 @@
         <v>948</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>23</v>
@@ -14044,7 +14041,7 @@
         <v>948</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>23</v>
@@ -14112,7 +14109,7 @@
         <v>948</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>23</v>
@@ -14180,7 +14177,7 @@
         <v>948</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>23</v>
@@ -14248,7 +14245,7 @@
         <v>948</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>23</v>
@@ -14316,7 +14313,7 @@
         <v>948</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>23</v>
@@ -14384,7 +14381,7 @@
         <v>948</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>23</v>
@@ -14452,7 +14449,7 @@
         <v>948</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>23</v>
@@ -14520,7 +14517,7 @@
         <v>948</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>23</v>
@@ -14588,7 +14585,7 @@
         <v>948</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>23</v>
@@ -14656,7 +14653,7 @@
         <v>948</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>23</v>
@@ -14724,7 +14721,7 @@
         <v>948</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>23</v>
@@ -14792,7 +14789,7 @@
         <v>948</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>23</v>
@@ -14860,7 +14857,7 @@
         <v>948</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>23</v>
@@ -14928,7 +14925,7 @@
         <v>948</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>23</v>
@@ -14996,7 +14993,7 @@
         <v>948</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>23</v>
@@ -15064,7 +15061,7 @@
         <v>948</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>23</v>

--- a/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
+++ b/leave/src/main/resources/TestData/Accural/Deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064A095C-A69B-4B55-9182-24AD5CF725AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CAA4C-B937-487E-B51C-72A9EF1B2355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6663,8 +6663,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G124"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6753,7 +6753,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -6821,7 +6821,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
@@ -6889,7 +6889,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -6957,7 +6957,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>32</v>
@@ -7025,7 +7025,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
@@ -7093,7 +7093,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>36</v>
